--- a/views/financeiro/relatorios/resumo_campanha_67.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_67.xlsx
@@ -718,19 +718,19 @@
         <v>19</v>
       </c>
       <c r="C11" s="6">
+        <v>1950.0</v>
+      </c>
+      <c r="D11" s="6">
         <v>600.0</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
       <c r="E11" s="6">
-        <v>600.0</v>
+        <v>1350.0</v>
       </c>
       <c r="F11" s="7">
-        <v>1.0</v>
+        <v>0.69230769230769</v>
       </c>
       <c r="G11" s="6">
-        <v>6.0</v>
+        <v>13.5</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>20</v>
       </c>
       <c r="C12" s="6">
-        <v>5650.0</v>
+        <v>6000.0</v>
       </c>
       <c r="D12" s="6">
         <v>4900.0</v>
       </c>
       <c r="E12" s="6">
-        <v>750.0</v>
+        <v>1100.0</v>
       </c>
       <c r="F12" s="7">
-        <v>0.13274336283186</v>
+        <v>0.18333333333333</v>
       </c>
       <c r="G12" s="6">
-        <v>7.5</v>
+        <v>11.0</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>13128.0</v>
+        <v>14828.0</v>
       </c>
       <c r="D13" s="9">
-        <v>9000.0</v>
+        <v>9600.0</v>
       </c>
       <c r="E13" s="9">
-        <v>4128.0</v>
+        <v>5228.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.31444241316271</v>
+        <v>0.35257620717561</v>
       </c>
       <c r="G13" s="9">
-        <v>41.28</v>
+        <v>52.28</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -967,19 +967,19 @@
         <v>27</v>
       </c>
       <c r="C24" s="6">
-        <v>13128.0</v>
+        <v>14828.0</v>
       </c>
       <c r="D24" s="6">
-        <v>9000.0</v>
+        <v>9600.0</v>
       </c>
       <c r="E24" s="6">
-        <v>4128.0</v>
+        <v>5228.0</v>
       </c>
       <c r="F24" s="7">
-        <v>0.31444241316271</v>
+        <v>0.35257620717561</v>
       </c>
       <c r="G24" s="6">
-        <v>41.28</v>
+        <v>52.28</v>
       </c>
       <c r="H24" s="8">
         <v>0</v>
@@ -1045,19 +1045,19 @@
         <v>21</v>
       </c>
       <c r="C27" s="9">
-        <v>16268.0</v>
+        <v>17968.0</v>
       </c>
       <c r="D27" s="9">
-        <v>10490.0</v>
+        <v>11090.0</v>
       </c>
       <c r="E27" s="9">
-        <v>5778.0</v>
+        <v>6878.0</v>
       </c>
       <c r="F27" s="10">
-        <v>0.35517580526186</v>
+        <v>0.38279162956367</v>
       </c>
       <c r="G27" s="9">
-        <v>57.78</v>
+        <v>68.78</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>19</v>
       </c>
       <c r="D34" s="12">
+        <v>1950.0</v>
+      </c>
+      <c r="E34" s="13">
         <v>600.0</v>
       </c>
-      <c r="E34" s="13">
-        <v>0</v>
-      </c>
       <c r="F34" s="12">
-        <v>600.0</v>
+        <v>1350.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1164,13 +1164,13 @@
         <v>20</v>
       </c>
       <c r="D35" s="12">
-        <v>5650.0</v>
+        <v>6000.0</v>
       </c>
       <c r="E35" s="13">
         <v>4900.0</v>
       </c>
       <c r="F35" s="12">
-        <v>750.0</v>
+        <v>1100.0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1211,15 +1211,15 @@
       </c>
       <c r="D39" s="9">
         <f>sum(D31:D38)</f>
-        <v>16268</v>
+        <v>17968</v>
       </c>
       <c r="E39" s="9">
         <f>sum(E31:E38)</f>
-        <v>10490</v>
+        <v>11090</v>
       </c>
       <c r="F39" s="9">
         <f>sum(F31:F38)</f>
-        <v>5778</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E40" s="15">
         <f>(E39/D39)</f>
-        <v>0.64482419473814</v>
+        <v>0.61720837043633</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="E41" s="15">
         <f>(F39/D39)</f>
-        <v>0.35517580526186</v>
+        <v>0.38279162956367</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_67.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_67.xlsx
@@ -643,16 +643,16 @@
         <v>3480.0</v>
       </c>
       <c r="D8" s="6">
-        <v>2750.0</v>
+        <v>3480.0</v>
       </c>
       <c r="E8" s="6">
-        <v>730.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="7">
-        <v>0.20977011494253</v>
+        <v>0.0</v>
       </c>
       <c r="G8" s="6">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>14.8</v>
       </c>
       <c r="H9" s="8">
-        <v>0</v>
+        <v>1480.0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -695,16 +695,16 @@
         <v>1918.0</v>
       </c>
       <c r="D10" s="6">
-        <v>1350.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E10" s="6">
-        <v>568.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="7">
-        <v>0.29614181438999</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="6">
-        <v>5.68</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>6000.0</v>
       </c>
       <c r="D12" s="6">
-        <v>4900.0</v>
+        <v>6000.0</v>
       </c>
       <c r="E12" s="6">
-        <v>1100.0</v>
+        <v>0.0</v>
       </c>
       <c r="F12" s="7">
-        <v>0.18333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="G12" s="6">
-        <v>11.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -773,22 +773,22 @@
         <v>14828.0</v>
       </c>
       <c r="D13" s="9">
-        <v>9600.0</v>
+        <v>11998.0</v>
       </c>
       <c r="E13" s="9">
-        <v>5228.0</v>
+        <v>2830.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.35257620717561</v>
+        <v>0.19085513892636</v>
       </c>
       <c r="G13" s="9">
-        <v>52.28</v>
+        <v>28.3</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>1480.0</v>
       </c>
       <c r="I13" s="9">
-        <v>0.0</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -899,10 +899,10 @@
         <v>16.5</v>
       </c>
       <c r="H20" s="8">
-        <v>0</v>
+        <v>1000.0</v>
       </c>
       <c r="I20" s="8">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -925,10 +925,10 @@
         <v>16.5</v>
       </c>
       <c r="H21" s="9">
-        <v>0</v>
+        <v>1000.0</v>
       </c>
       <c r="I21" s="9">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -970,22 +970,22 @@
         <v>14828.0</v>
       </c>
       <c r="D24" s="6">
-        <v>9600.0</v>
+        <v>11998.0</v>
       </c>
       <c r="E24" s="6">
-        <v>5228.0</v>
+        <v>2830.0</v>
       </c>
       <c r="F24" s="7">
-        <v>0.35257620717561</v>
+        <v>0.19085513892636</v>
       </c>
       <c r="G24" s="6">
-        <v>52.28</v>
+        <v>28.3</v>
       </c>
       <c r="H24" s="8">
-        <v>0</v>
+        <v>1480.0</v>
       </c>
       <c r="I24" s="8">
-        <v>0.0</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1034,10 +1034,10 @@
         <v>16.5</v>
       </c>
       <c r="H26" s="8">
-        <v>0</v>
+        <v>1000.0</v>
       </c>
       <c r="I26" s="8">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1048,22 +1048,22 @@
         <v>17968.0</v>
       </c>
       <c r="D27" s="9">
-        <v>11090.0</v>
+        <v>13488.0</v>
       </c>
       <c r="E27" s="9">
-        <v>6878.0</v>
+        <v>4480.0</v>
       </c>
       <c r="F27" s="10">
-        <v>0.38279162956367</v>
+        <v>0.2493321460374</v>
       </c>
       <c r="G27" s="9">
-        <v>68.78</v>
+        <v>44.8</v>
       </c>
       <c r="H27" s="9">
-        <v>0</v>
+        <v>2480.0</v>
       </c>
       <c r="I27" s="9">
-        <v>0.0</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1099,10 +1099,10 @@
         <v>3480.0</v>
       </c>
       <c r="E31" s="13">
-        <v>2750.0</v>
+        <v>3480.0</v>
       </c>
       <c r="F31" s="12">
-        <v>730.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1116,10 +1116,10 @@
         <v>1480.0</v>
       </c>
       <c r="E32" s="13">
-        <v>0</v>
+        <v>1480.0</v>
       </c>
       <c r="F32" s="12">
-        <v>1480.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1133,10 +1133,10 @@
         <v>1918.0</v>
       </c>
       <c r="E33" s="13">
-        <v>1350.0</v>
+        <v>1918.0</v>
       </c>
       <c r="F33" s="12">
-        <v>568.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1167,10 +1167,10 @@
         <v>6000.0</v>
       </c>
       <c r="E35" s="13">
-        <v>4900.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F35" s="12">
-        <v>1100.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1198,10 +1198,10 @@
         <v>3140.0</v>
       </c>
       <c r="E38" s="13">
-        <v>1490.0</v>
+        <v>2490.0</v>
       </c>
       <c r="F38" s="12">
-        <v>1650.0</v>
+        <v>650.0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1215,11 +1215,11 @@
       </c>
       <c r="E39" s="9">
         <f>sum(E31:E38)</f>
-        <v>11090</v>
+        <v>15968</v>
       </c>
       <c r="F39" s="9">
         <f>sum(F31:F38)</f>
-        <v>6878</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E40" s="15">
         <f>(E39/D39)</f>
-        <v>0.61720837043633</v>
+        <v>0.8886910062333</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="E41" s="15">
         <f>(F39/D39)</f>
-        <v>0.38279162956367</v>
+        <v>0.1113089937667</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_67.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_67.xlsx
@@ -899,10 +899,10 @@
         <v>16.5</v>
       </c>
       <c r="H20" s="8">
-        <v>1000.0</v>
+        <v>1470.0</v>
       </c>
       <c r="I20" s="8">
-        <v>20.0</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -925,10 +925,10 @@
         <v>16.5</v>
       </c>
       <c r="H21" s="9">
-        <v>1000.0</v>
+        <v>1470.0</v>
       </c>
       <c r="I21" s="9">
-        <v>20.0</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1034,10 +1034,10 @@
         <v>16.5</v>
       </c>
       <c r="H26" s="8">
-        <v>1000.0</v>
+        <v>1470.0</v>
       </c>
       <c r="I26" s="8">
-        <v>20.0</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1060,10 +1060,10 @@
         <v>44.8</v>
       </c>
       <c r="H27" s="9">
-        <v>2480.0</v>
+        <v>2950.0</v>
       </c>
       <c r="I27" s="9">
-        <v>49.6</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1198,10 +1198,10 @@
         <v>3140.0</v>
       </c>
       <c r="E38" s="13">
-        <v>2490.0</v>
+        <v>2960.0</v>
       </c>
       <c r="F38" s="12">
-        <v>650.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1215,11 +1215,11 @@
       </c>
       <c r="E39" s="9">
         <f>sum(E31:E38)</f>
-        <v>15968</v>
+        <v>16438</v>
       </c>
       <c r="F39" s="9">
         <f>sum(F31:F38)</f>
-        <v>2000</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E40" s="15">
         <f>(E39/D39)</f>
-        <v>0.8886910062333</v>
+        <v>0.91484861976848</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="E41" s="15">
         <f>(F39/D39)</f>
-        <v>0.1113089937667</v>
+        <v>0.085151380231523</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_67.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_67.xlsx
@@ -733,10 +733,10 @@
         <v>13.5</v>
       </c>
       <c r="H11" s="8">
-        <v>0</v>
+        <v>1350.0</v>
       </c>
       <c r="I11" s="8">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -785,10 +785,10 @@
         <v>28.3</v>
       </c>
       <c r="H13" s="9">
-        <v>1480.0</v>
+        <v>2830.0</v>
       </c>
       <c r="I13" s="9">
-        <v>29.6</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -899,10 +899,10 @@
         <v>16.5</v>
       </c>
       <c r="H20" s="8">
-        <v>1470.0</v>
+        <v>1650.0</v>
       </c>
       <c r="I20" s="8">
-        <v>29.4</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -925,10 +925,10 @@
         <v>16.5</v>
       </c>
       <c r="H21" s="9">
-        <v>1470.0</v>
+        <v>1650.0</v>
       </c>
       <c r="I21" s="9">
-        <v>29.4</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -982,10 +982,10 @@
         <v>28.3</v>
       </c>
       <c r="H24" s="8">
-        <v>1480.0</v>
+        <v>2830.0</v>
       </c>
       <c r="I24" s="8">
-        <v>29.6</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1034,10 +1034,10 @@
         <v>16.5</v>
       </c>
       <c r="H26" s="8">
-        <v>1470.0</v>
+        <v>1650.0</v>
       </c>
       <c r="I26" s="8">
-        <v>29.4</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1060,10 +1060,10 @@
         <v>44.8</v>
       </c>
       <c r="H27" s="9">
-        <v>2950.0</v>
+        <v>4480.0</v>
       </c>
       <c r="I27" s="9">
-        <v>59.0</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1150,10 +1150,10 @@
         <v>1950.0</v>
       </c>
       <c r="E34" s="13">
-        <v>600.0</v>
+        <v>1950.0</v>
       </c>
       <c r="F34" s="12">
-        <v>1350.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1198,10 +1198,10 @@
         <v>3140.0</v>
       </c>
       <c r="E38" s="13">
-        <v>2960.0</v>
+        <v>3140.0</v>
       </c>
       <c r="F38" s="12">
-        <v>180.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1215,11 +1215,11 @@
       </c>
       <c r="E39" s="9">
         <f>sum(E31:E38)</f>
-        <v>16438</v>
+        <v>17968</v>
       </c>
       <c r="F39" s="9">
         <f>sum(F31:F38)</f>
-        <v>1530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E40" s="15">
         <f>(E39/D39)</f>
-        <v>0.91484861976848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="E41" s="15">
         <f>(F39/D39)</f>
-        <v>0.085151380231523</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
